--- a/data/tehilim-data/96.xlsx
+++ b/data/tehilim-data/96.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="207">
   <si>
     <t>original</t>
   </si>
@@ -94,7 +94,7 @@
     <t>благовествуйте</t>
   </si>
   <si>
-    <t>מִיּֽוֹם־</t>
+    <t>מִיּֽוֹם</t>
   </si>
   <si>
     <t>со дня</t>
@@ -472,40 +472,40 @@
     <t>יא</t>
   </si>
   <si>
-    <t>יִשְׂמְח֣וּ</t>
-  </si>
-  <si>
-    <t>Да радуются</t>
-  </si>
-  <si>
-    <t>הַשָּׁמַ֣יִם</t>
-  </si>
-  <si>
-    <t>וְתָגֵ֣ל</t>
-  </si>
-  <si>
-    <t>и да веселится</t>
-  </si>
-  <si>
-    <t>הָאָ֑רֶץ</t>
-  </si>
-  <si>
-    <t>יִרְעַ֥ם</t>
-  </si>
-  <si>
-    <t>да шумит</t>
-  </si>
-  <si>
-    <t>הַ֝יָּ֗ם</t>
-  </si>
-  <si>
-    <t>море</t>
-  </si>
-  <si>
-    <t>וּמְלֹאֽוֹ׃</t>
-  </si>
-  <si>
-    <t>и что наполняет его</t>
+    <t>יִרְעַם</t>
+  </si>
+  <si>
+    <t>Пусть гремит</t>
+  </si>
+  <si>
+    <t>הַיָּם</t>
+  </si>
+  <si>
+    <t>Море</t>
+  </si>
+  <si>
+    <t>וּמְלֹאוֹ</t>
+  </si>
+  <si>
+    <t>И все</t>
+  </si>
+  <si>
+    <t>תֵּבֵל</t>
+  </si>
+  <si>
+    <t>Вселенная</t>
+  </si>
+  <si>
+    <t>וְיֹשְׁבֵי</t>
+  </si>
+  <si>
+    <t>И живущие</t>
+  </si>
+  <si>
+    <t>בָהּ</t>
+  </si>
+  <si>
+    <t>В ней</t>
   </si>
   <si>
     <t>יב</t>
@@ -638,7 +638,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -647,6 +647,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -679,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -692,10 +697,16 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1659,1778 +1670,1770 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>78</v>
+      <c r="B95" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="A96" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="B96" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>17</v>
+      <c r="A97" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>160</v>
+      <c r="A98" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>162</v>
+      <c r="A99" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="B100" s="3">
+        <v>12.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B101" s="3">
-        <v>12.0</v>
+        <v>166</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="B111" s="3">
+        <v>13.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B112" s="3">
-        <v>13.0</v>
+        <v>186</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>200</v>
+        <v>140</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="A125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="5"/>
+      <c r="A126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="5"/>
+      <c r="A127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="5"/>
+      <c r="A128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="5"/>
+      <c r="A129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="5"/>
+      <c r="A130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="5"/>
+      <c r="A131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="5"/>
+      <c r="A132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="5"/>
+      <c r="A133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="5"/>
+      <c r="A134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="5"/>
+      <c r="A135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="5"/>
+      <c r="A136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="5"/>
+      <c r="A137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="5"/>
+      <c r="A138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="5"/>
+      <c r="A139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="5"/>
+      <c r="A140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="5"/>
+      <c r="A141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="5"/>
+      <c r="A142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="5"/>
+      <c r="A143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="5"/>
+      <c r="A144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="5"/>
+      <c r="A145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="5"/>
+      <c r="A146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="5"/>
+      <c r="A147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="5"/>
+      <c r="A148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="5"/>
+      <c r="A149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="5"/>
+      <c r="A150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="5"/>
+      <c r="A151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="5"/>
+      <c r="A152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="5"/>
+      <c r="A153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="5"/>
+      <c r="A154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="5"/>
+      <c r="A155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="5"/>
+      <c r="A156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="5"/>
+      <c r="A157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="5"/>
+      <c r="A158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="5"/>
+      <c r="A159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="5"/>
+      <c r="A160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="5"/>
+      <c r="A161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="5"/>
+      <c r="A162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="5"/>
+      <c r="A163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="5"/>
+      <c r="A164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="5"/>
+      <c r="A165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="5"/>
+      <c r="A166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="5"/>
+      <c r="A167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="5"/>
+      <c r="A168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="5"/>
+      <c r="A169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="5"/>
+      <c r="A170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="5"/>
+      <c r="A171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="5"/>
+      <c r="A172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="5"/>
+      <c r="A173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="5"/>
+      <c r="A174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="5"/>
+      <c r="A175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="5"/>
+      <c r="A176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="5"/>
+      <c r="A177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="5"/>
+      <c r="A178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="5"/>
+      <c r="A179" s="7"/>
     </row>
     <row r="180">
-      <c r="A180" s="5"/>
+      <c r="A180" s="7"/>
     </row>
     <row r="181">
-      <c r="A181" s="5"/>
+      <c r="A181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="5"/>
+      <c r="A182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="5"/>
+      <c r="A183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="5"/>
+      <c r="A184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="5"/>
+      <c r="A185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="5"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="5"/>
+      <c r="A186" s="7"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="7"/>
     </row>
     <row r="189">
-      <c r="A189" s="5"/>
+      <c r="A189" s="7"/>
     </row>
     <row r="190">
-      <c r="A190" s="5"/>
+      <c r="A190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="5"/>
+      <c r="A191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="5"/>
+      <c r="A192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="5"/>
+      <c r="A193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="5"/>
+      <c r="A194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="5"/>
+      <c r="A195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="5"/>
+      <c r="A196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="5"/>
+      <c r="A197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="5"/>
+      <c r="A198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="5"/>
+      <c r="A199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="5"/>
+      <c r="A200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="5"/>
+      <c r="A201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="5"/>
+      <c r="A202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="5"/>
+      <c r="A203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="5"/>
+      <c r="A204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="5"/>
+      <c r="A205" s="7"/>
     </row>
     <row r="206">
-      <c r="A206" s="5"/>
+      <c r="A206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="5"/>
+      <c r="A207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="5"/>
+      <c r="A208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="5"/>
+      <c r="A209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="5"/>
+      <c r="A210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="5"/>
+      <c r="A211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="5"/>
+      <c r="A212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="5"/>
+      <c r="A213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="5"/>
+      <c r="A214" s="7"/>
     </row>
     <row r="215">
-      <c r="A215" s="5"/>
+      <c r="A215" s="7"/>
     </row>
     <row r="216">
-      <c r="A216" s="5"/>
+      <c r="A216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="5"/>
+      <c r="A217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="5"/>
+      <c r="A218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="5"/>
+      <c r="A219" s="7"/>
     </row>
     <row r="220">
-      <c r="A220" s="5"/>
+      <c r="A220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="5"/>
+      <c r="A221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="5"/>
+      <c r="A222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="5"/>
+      <c r="A223" s="7"/>
     </row>
     <row r="224">
-      <c r="A224" s="5"/>
+      <c r="A224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="5"/>
+      <c r="A225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="5"/>
+      <c r="A226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="5"/>
+      <c r="A227" s="7"/>
     </row>
     <row r="228">
-      <c r="A228" s="5"/>
+      <c r="A228" s="7"/>
     </row>
     <row r="229">
-      <c r="A229" s="5"/>
+      <c r="A229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="5"/>
+      <c r="A230" s="7"/>
     </row>
     <row r="231">
-      <c r="A231" s="5"/>
+      <c r="A231" s="7"/>
     </row>
     <row r="232">
-      <c r="A232" s="5"/>
+      <c r="A232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="5"/>
+      <c r="A233" s="7"/>
     </row>
     <row r="234">
-      <c r="A234" s="5"/>
+      <c r="A234" s="7"/>
     </row>
     <row r="235">
-      <c r="A235" s="5"/>
+      <c r="A235" s="7"/>
     </row>
     <row r="236">
-      <c r="A236" s="5"/>
+      <c r="A236" s="7"/>
     </row>
     <row r="237">
-      <c r="A237" s="5"/>
+      <c r="A237" s="7"/>
     </row>
     <row r="238">
-      <c r="A238" s="5"/>
+      <c r="A238" s="7"/>
     </row>
     <row r="239">
-      <c r="A239" s="5"/>
+      <c r="A239" s="7"/>
     </row>
     <row r="240">
-      <c r="A240" s="5"/>
+      <c r="A240" s="7"/>
     </row>
     <row r="241">
-      <c r="A241" s="5"/>
+      <c r="A241" s="7"/>
     </row>
     <row r="242">
-      <c r="A242" s="5"/>
+      <c r="A242" s="7"/>
     </row>
     <row r="243">
-      <c r="A243" s="5"/>
+      <c r="A243" s="7"/>
     </row>
     <row r="244">
-      <c r="A244" s="5"/>
+      <c r="A244" s="7"/>
     </row>
     <row r="245">
-      <c r="A245" s="5"/>
+      <c r="A245" s="7"/>
     </row>
     <row r="246">
-      <c r="A246" s="5"/>
+      <c r="A246" s="7"/>
     </row>
     <row r="247">
-      <c r="A247" s="5"/>
+      <c r="A247" s="7"/>
     </row>
     <row r="248">
-      <c r="A248" s="5"/>
+      <c r="A248" s="7"/>
     </row>
     <row r="249">
-      <c r="A249" s="5"/>
+      <c r="A249" s="7"/>
     </row>
     <row r="250">
-      <c r="A250" s="5"/>
+      <c r="A250" s="7"/>
     </row>
     <row r="251">
-      <c r="A251" s="5"/>
+      <c r="A251" s="7"/>
     </row>
     <row r="252">
-      <c r="A252" s="5"/>
+      <c r="A252" s="7"/>
     </row>
     <row r="253">
-      <c r="A253" s="5"/>
+      <c r="A253" s="7"/>
     </row>
     <row r="254">
-      <c r="A254" s="5"/>
+      <c r="A254" s="7"/>
     </row>
     <row r="255">
-      <c r="A255" s="5"/>
+      <c r="A255" s="7"/>
     </row>
     <row r="256">
-      <c r="A256" s="5"/>
+      <c r="A256" s="7"/>
     </row>
     <row r="257">
-      <c r="A257" s="5"/>
+      <c r="A257" s="7"/>
     </row>
     <row r="258">
-      <c r="A258" s="5"/>
+      <c r="A258" s="7"/>
     </row>
     <row r="259">
-      <c r="A259" s="5"/>
+      <c r="A259" s="7"/>
     </row>
     <row r="260">
-      <c r="A260" s="5"/>
+      <c r="A260" s="7"/>
     </row>
     <row r="261">
-      <c r="A261" s="5"/>
+      <c r="A261" s="7"/>
     </row>
     <row r="262">
-      <c r="A262" s="5"/>
+      <c r="A262" s="7"/>
     </row>
     <row r="263">
-      <c r="A263" s="5"/>
+      <c r="A263" s="7"/>
     </row>
     <row r="264">
-      <c r="A264" s="5"/>
+      <c r="A264" s="7"/>
     </row>
     <row r="265">
-      <c r="A265" s="5"/>
+      <c r="A265" s="7"/>
     </row>
     <row r="266">
-      <c r="A266" s="5"/>
+      <c r="A266" s="7"/>
     </row>
     <row r="267">
-      <c r="A267" s="5"/>
+      <c r="A267" s="7"/>
     </row>
     <row r="268">
-      <c r="A268" s="5"/>
+      <c r="A268" s="7"/>
     </row>
     <row r="269">
-      <c r="A269" s="5"/>
+      <c r="A269" s="7"/>
     </row>
     <row r="270">
-      <c r="A270" s="5"/>
+      <c r="A270" s="7"/>
     </row>
     <row r="271">
-      <c r="A271" s="5"/>
+      <c r="A271" s="7"/>
     </row>
     <row r="272">
-      <c r="A272" s="5"/>
+      <c r="A272" s="7"/>
     </row>
     <row r="273">
-      <c r="A273" s="5"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="5"/>
+      <c r="A273" s="7"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="7"/>
     </row>
     <row r="276">
-      <c r="A276" s="5"/>
+      <c r="A276" s="7"/>
     </row>
     <row r="277">
-      <c r="A277" s="5"/>
+      <c r="A277" s="7"/>
     </row>
     <row r="278">
-      <c r="A278" s="5"/>
+      <c r="A278" s="7"/>
     </row>
     <row r="279">
-      <c r="A279" s="5"/>
+      <c r="A279" s="7"/>
     </row>
     <row r="280">
-      <c r="A280" s="5"/>
+      <c r="A280" s="7"/>
     </row>
     <row r="281">
-      <c r="A281" s="5"/>
+      <c r="A281" s="7"/>
     </row>
     <row r="282">
-      <c r="A282" s="5"/>
+      <c r="A282" s="7"/>
     </row>
     <row r="283">
-      <c r="A283" s="5"/>
+      <c r="A283" s="7"/>
     </row>
     <row r="284">
-      <c r="A284" s="5"/>
+      <c r="A284" s="7"/>
     </row>
     <row r="285">
-      <c r="A285" s="5"/>
+      <c r="A285" s="7"/>
     </row>
     <row r="286">
-      <c r="A286" s="5"/>
+      <c r="A286" s="7"/>
     </row>
     <row r="287">
-      <c r="A287" s="5"/>
+      <c r="A287" s="7"/>
     </row>
     <row r="288">
-      <c r="A288" s="5"/>
+      <c r="A288" s="7"/>
     </row>
     <row r="289">
-      <c r="A289" s="5"/>
+      <c r="A289" s="7"/>
     </row>
     <row r="290">
-      <c r="A290" s="5"/>
+      <c r="A290" s="7"/>
     </row>
     <row r="291">
-      <c r="A291" s="5"/>
+      <c r="A291" s="7"/>
     </row>
     <row r="292">
-      <c r="A292" s="5"/>
+      <c r="A292" s="7"/>
     </row>
     <row r="293">
-      <c r="A293" s="5"/>
+      <c r="A293" s="7"/>
     </row>
     <row r="294">
-      <c r="A294" s="5"/>
+      <c r="A294" s="7"/>
     </row>
     <row r="295">
-      <c r="A295" s="5"/>
+      <c r="A295" s="7"/>
     </row>
     <row r="296">
-      <c r="A296" s="5"/>
+      <c r="A296" s="7"/>
     </row>
     <row r="297">
-      <c r="A297" s="5"/>
+      <c r="A297" s="7"/>
     </row>
     <row r="298">
-      <c r="A298" s="5"/>
+      <c r="A298" s="7"/>
     </row>
     <row r="299">
-      <c r="A299" s="5"/>
+      <c r="A299" s="7"/>
     </row>
     <row r="300">
-      <c r="A300" s="5"/>
+      <c r="A300" s="7"/>
     </row>
     <row r="301">
-      <c r="A301" s="5"/>
+      <c r="A301" s="7"/>
     </row>
     <row r="302">
-      <c r="A302" s="5"/>
+      <c r="A302" s="7"/>
     </row>
     <row r="303">
-      <c r="A303" s="5"/>
+      <c r="A303" s="7"/>
     </row>
     <row r="304">
-      <c r="A304" s="5"/>
+      <c r="A304" s="7"/>
     </row>
     <row r="305">
-      <c r="A305" s="5"/>
+      <c r="A305" s="7"/>
     </row>
     <row r="306">
-      <c r="A306" s="5"/>
+      <c r="A306" s="7"/>
     </row>
     <row r="307">
-      <c r="A307" s="5"/>
+      <c r="A307" s="7"/>
     </row>
     <row r="308">
-      <c r="A308" s="5"/>
+      <c r="A308" s="7"/>
     </row>
     <row r="309">
-      <c r="A309" s="5"/>
+      <c r="A309" s="7"/>
     </row>
     <row r="310">
-      <c r="A310" s="5"/>
+      <c r="A310" s="7"/>
     </row>
     <row r="311">
-      <c r="A311" s="5"/>
+      <c r="A311" s="7"/>
     </row>
     <row r="312">
-      <c r="A312" s="5"/>
+      <c r="A312" s="7"/>
     </row>
     <row r="313">
-      <c r="A313" s="5"/>
+      <c r="A313" s="7"/>
     </row>
     <row r="314">
-      <c r="A314" s="5"/>
+      <c r="A314" s="7"/>
     </row>
     <row r="315">
-      <c r="A315" s="5"/>
+      <c r="A315" s="7"/>
     </row>
     <row r="316">
-      <c r="A316" s="5"/>
+      <c r="A316" s="7"/>
     </row>
     <row r="317">
-      <c r="A317" s="5"/>
+      <c r="A317" s="7"/>
     </row>
     <row r="318">
-      <c r="A318" s="5"/>
+      <c r="A318" s="7"/>
     </row>
     <row r="319">
-      <c r="A319" s="5"/>
+      <c r="A319" s="7"/>
     </row>
     <row r="320">
-      <c r="A320" s="5"/>
+      <c r="A320" s="7"/>
     </row>
     <row r="321">
-      <c r="A321" s="5"/>
+      <c r="A321" s="7"/>
     </row>
     <row r="322">
-      <c r="A322" s="5"/>
+      <c r="A322" s="7"/>
     </row>
     <row r="323">
-      <c r="A323" s="5"/>
+      <c r="A323" s="7"/>
     </row>
     <row r="324">
-      <c r="A324" s="5"/>
+      <c r="A324" s="7"/>
     </row>
     <row r="325">
-      <c r="A325" s="5"/>
+      <c r="A325" s="7"/>
     </row>
     <row r="326">
-      <c r="A326" s="5"/>
+      <c r="A326" s="7"/>
     </row>
     <row r="327">
-      <c r="A327" s="5"/>
+      <c r="A327" s="7"/>
     </row>
     <row r="328">
-      <c r="A328" s="5"/>
+      <c r="A328" s="7"/>
     </row>
     <row r="329">
-      <c r="A329" s="5"/>
+      <c r="A329" s="7"/>
     </row>
     <row r="330">
-      <c r="A330" s="5"/>
+      <c r="A330" s="7"/>
     </row>
     <row r="331">
-      <c r="A331" s="5"/>
+      <c r="A331" s="7"/>
     </row>
     <row r="332">
-      <c r="A332" s="5"/>
+      <c r="A332" s="7"/>
     </row>
     <row r="333">
-      <c r="A333" s="5"/>
+      <c r="A333" s="7"/>
     </row>
     <row r="334">
-      <c r="A334" s="5"/>
+      <c r="A334" s="7"/>
     </row>
     <row r="335">
-      <c r="A335" s="5"/>
+      <c r="A335" s="7"/>
     </row>
     <row r="336">
-      <c r="A336" s="5"/>
+      <c r="A336" s="7"/>
     </row>
     <row r="337">
-      <c r="A337" s="5"/>
+      <c r="A337" s="7"/>
     </row>
     <row r="338">
-      <c r="A338" s="5"/>
+      <c r="A338" s="7"/>
     </row>
     <row r="339">
-      <c r="A339" s="5"/>
+      <c r="A339" s="7"/>
     </row>
     <row r="340">
-      <c r="A340" s="5"/>
+      <c r="A340" s="7"/>
     </row>
     <row r="341">
-      <c r="A341" s="5"/>
+      <c r="A341" s="7"/>
     </row>
     <row r="342">
-      <c r="A342" s="5"/>
+      <c r="A342" s="7"/>
     </row>
     <row r="343">
-      <c r="A343" s="5"/>
+      <c r="A343" s="7"/>
     </row>
     <row r="344">
-      <c r="A344" s="5"/>
+      <c r="A344" s="7"/>
     </row>
     <row r="345">
-      <c r="A345" s="5"/>
+      <c r="A345" s="7"/>
     </row>
     <row r="346">
-      <c r="A346" s="5"/>
+      <c r="A346" s="7"/>
     </row>
     <row r="347">
-      <c r="A347" s="5"/>
+      <c r="A347" s="7"/>
     </row>
     <row r="348">
-      <c r="A348" s="5"/>
+      <c r="A348" s="7"/>
     </row>
     <row r="349">
-      <c r="A349" s="5"/>
+      <c r="A349" s="7"/>
     </row>
     <row r="350">
-      <c r="A350" s="5"/>
+      <c r="A350" s="7"/>
     </row>
     <row r="351">
-      <c r="A351" s="5"/>
+      <c r="A351" s="7"/>
     </row>
     <row r="352">
-      <c r="A352" s="5"/>
+      <c r="A352" s="7"/>
     </row>
     <row r="353">
-      <c r="A353" s="5"/>
+      <c r="A353" s="7"/>
     </row>
     <row r="354">
-      <c r="A354" s="5"/>
+      <c r="A354" s="7"/>
     </row>
     <row r="355">
-      <c r="A355" s="5"/>
+      <c r="A355" s="7"/>
     </row>
     <row r="356">
-      <c r="A356" s="5"/>
+      <c r="A356" s="7"/>
     </row>
     <row r="357">
-      <c r="A357" s="5"/>
+      <c r="A357" s="7"/>
     </row>
     <row r="358">
-      <c r="A358" s="5"/>
+      <c r="A358" s="7"/>
     </row>
     <row r="359">
-      <c r="A359" s="5"/>
+      <c r="A359" s="7"/>
     </row>
     <row r="360">
-      <c r="A360" s="5"/>
+      <c r="A360" s="7"/>
     </row>
     <row r="361">
-      <c r="A361" s="5"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="5"/>
+      <c r="A361" s="7"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="7"/>
     </row>
     <row r="364">
-      <c r="A364" s="5"/>
+      <c r="A364" s="7"/>
     </row>
     <row r="365">
-      <c r="A365" s="5"/>
+      <c r="A365" s="7"/>
     </row>
     <row r="366">
-      <c r="A366" s="5"/>
+      <c r="A366" s="7"/>
     </row>
     <row r="367">
-      <c r="A367" s="5"/>
+      <c r="A367" s="7"/>
     </row>
     <row r="368">
-      <c r="A368" s="5"/>
+      <c r="A368" s="7"/>
     </row>
     <row r="369">
-      <c r="A369" s="5"/>
+      <c r="A369" s="7"/>
     </row>
     <row r="370">
-      <c r="A370" s="5"/>
+      <c r="A370" s="7"/>
     </row>
     <row r="371">
-      <c r="A371" s="5"/>
+      <c r="A371" s="7"/>
     </row>
     <row r="372">
-      <c r="A372" s="5"/>
+      <c r="A372" s="7"/>
     </row>
     <row r="373">
-      <c r="A373" s="5"/>
+      <c r="A373" s="7"/>
     </row>
     <row r="374">
-      <c r="A374" s="5"/>
+      <c r="A374" s="7"/>
     </row>
     <row r="375">
-      <c r="A375" s="5"/>
+      <c r="A375" s="7"/>
     </row>
     <row r="376">
-      <c r="A376" s="5"/>
+      <c r="A376" s="7"/>
     </row>
     <row r="377">
-      <c r="A377" s="5"/>
+      <c r="A377" s="7"/>
     </row>
     <row r="378">
-      <c r="A378" s="5"/>
+      <c r="A378" s="7"/>
     </row>
     <row r="379">
-      <c r="A379" s="5"/>
+      <c r="A379" s="7"/>
     </row>
     <row r="380">
-      <c r="A380" s="5"/>
+      <c r="A380" s="7"/>
     </row>
     <row r="381">
-      <c r="A381" s="5"/>
+      <c r="A381" s="7"/>
     </row>
     <row r="382">
-      <c r="A382" s="5"/>
+      <c r="A382" s="7"/>
     </row>
     <row r="383">
-      <c r="A383" s="5"/>
+      <c r="A383" s="7"/>
     </row>
     <row r="384">
-      <c r="A384" s="5"/>
+      <c r="A384" s="7"/>
     </row>
     <row r="385">
-      <c r="A385" s="5"/>
+      <c r="A385" s="7"/>
     </row>
     <row r="386">
-      <c r="A386" s="5"/>
+      <c r="A386" s="7"/>
     </row>
     <row r="387">
-      <c r="A387" s="5"/>
+      <c r="A387" s="7"/>
     </row>
     <row r="388">
-      <c r="A388" s="5"/>
+      <c r="A388" s="7"/>
     </row>
     <row r="389">
-      <c r="A389" s="5"/>
+      <c r="A389" s="7"/>
     </row>
     <row r="390">
-      <c r="A390" s="5"/>
+      <c r="A390" s="7"/>
     </row>
     <row r="391">
-      <c r="A391" s="5"/>
+      <c r="A391" s="7"/>
     </row>
     <row r="392">
-      <c r="A392" s="5"/>
+      <c r="A392" s="7"/>
     </row>
     <row r="393">
-      <c r="A393" s="5"/>
+      <c r="A393" s="7"/>
     </row>
     <row r="394">
-      <c r="A394" s="5"/>
+      <c r="A394" s="7"/>
     </row>
     <row r="395">
-      <c r="A395" s="5"/>
+      <c r="A395" s="7"/>
     </row>
     <row r="396">
-      <c r="A396" s="5"/>
+      <c r="A396" s="7"/>
     </row>
     <row r="397">
-      <c r="A397" s="5"/>
+      <c r="A397" s="7"/>
     </row>
     <row r="398">
-      <c r="A398" s="5"/>
+      <c r="A398" s="7"/>
     </row>
     <row r="399">
-      <c r="A399" s="5"/>
+      <c r="A399" s="7"/>
     </row>
     <row r="400">
-      <c r="A400" s="5"/>
+      <c r="A400" s="7"/>
     </row>
     <row r="401">
-      <c r="A401" s="5"/>
+      <c r="A401" s="7"/>
     </row>
     <row r="402">
-      <c r="A402" s="5"/>
+      <c r="A402" s="7"/>
     </row>
     <row r="403">
-      <c r="A403" s="5"/>
+      <c r="A403" s="7"/>
     </row>
     <row r="404">
-      <c r="A404" s="5"/>
+      <c r="A404" s="7"/>
     </row>
     <row r="405">
-      <c r="A405" s="5"/>
+      <c r="A405" s="7"/>
     </row>
     <row r="406">
-      <c r="A406" s="5"/>
+      <c r="A406" s="7"/>
     </row>
     <row r="407">
-      <c r="A407" s="5"/>
+      <c r="A407" s="7"/>
     </row>
     <row r="408">
-      <c r="A408" s="5"/>
+      <c r="A408" s="7"/>
     </row>
     <row r="409">
-      <c r="A409" s="5"/>
+      <c r="A409" s="7"/>
     </row>
     <row r="410">
-      <c r="A410" s="5"/>
+      <c r="A410" s="7"/>
     </row>
     <row r="411">
-      <c r="A411" s="5"/>
+      <c r="A411" s="7"/>
     </row>
     <row r="412">
-      <c r="A412" s="5"/>
+      <c r="A412" s="7"/>
     </row>
     <row r="413">
-      <c r="A413" s="5"/>
+      <c r="A413" s="7"/>
     </row>
     <row r="414">
-      <c r="A414" s="5"/>
+      <c r="A414" s="7"/>
     </row>
     <row r="415">
-      <c r="A415" s="5"/>
+      <c r="A415" s="7"/>
     </row>
     <row r="416">
-      <c r="A416" s="5"/>
+      <c r="A416" s="7"/>
     </row>
     <row r="417">
-      <c r="A417" s="5"/>
+      <c r="A417" s="7"/>
     </row>
     <row r="418">
-      <c r="A418" s="5"/>
+      <c r="A418" s="7"/>
     </row>
     <row r="419">
-      <c r="A419" s="5"/>
+      <c r="A419" s="7"/>
     </row>
     <row r="420">
-      <c r="A420" s="5"/>
+      <c r="A420" s="7"/>
     </row>
     <row r="421">
-      <c r="A421" s="5"/>
+      <c r="A421" s="7"/>
     </row>
     <row r="422">
-      <c r="A422" s="5"/>
+      <c r="A422" s="7"/>
     </row>
     <row r="423">
-      <c r="A423" s="5"/>
+      <c r="A423" s="7"/>
     </row>
     <row r="424">
-      <c r="A424" s="5"/>
+      <c r="A424" s="7"/>
     </row>
     <row r="425">
-      <c r="A425" s="5"/>
+      <c r="A425" s="7"/>
     </row>
     <row r="426">
-      <c r="A426" s="5"/>
+      <c r="A426" s="7"/>
     </row>
     <row r="427">
-      <c r="A427" s="5"/>
+      <c r="A427" s="7"/>
     </row>
     <row r="428">
-      <c r="A428" s="5"/>
+      <c r="A428" s="7"/>
     </row>
     <row r="429">
-      <c r="A429" s="5"/>
+      <c r="A429" s="7"/>
     </row>
     <row r="430">
-      <c r="A430" s="5"/>
+      <c r="A430" s="7"/>
     </row>
     <row r="431">
-      <c r="A431" s="5"/>
+      <c r="A431" s="7"/>
     </row>
     <row r="432">
-      <c r="A432" s="5"/>
+      <c r="A432" s="7"/>
     </row>
     <row r="433">
-      <c r="A433" s="5"/>
+      <c r="A433" s="7"/>
     </row>
     <row r="434">
-      <c r="A434" s="5"/>
+      <c r="A434" s="7"/>
     </row>
     <row r="435">
-      <c r="A435" s="5"/>
+      <c r="A435" s="7"/>
     </row>
     <row r="436">
-      <c r="A436" s="5"/>
+      <c r="A436" s="7"/>
     </row>
     <row r="437">
-      <c r="A437" s="5"/>
+      <c r="A437" s="7"/>
     </row>
     <row r="438">
-      <c r="A438" s="5"/>
+      <c r="A438" s="7"/>
     </row>
     <row r="439">
-      <c r="A439" s="5"/>
+      <c r="A439" s="7"/>
     </row>
     <row r="440">
-      <c r="A440" s="5"/>
+      <c r="A440" s="7"/>
     </row>
     <row r="441">
-      <c r="A441" s="5"/>
+      <c r="A441" s="7"/>
     </row>
     <row r="442">
-      <c r="A442" s="5"/>
+      <c r="A442" s="7"/>
     </row>
     <row r="443">
-      <c r="A443" s="5"/>
+      <c r="A443" s="7"/>
     </row>
     <row r="444">
-      <c r="A444" s="5"/>
+      <c r="A444" s="7"/>
     </row>
     <row r="445">
-      <c r="A445" s="5"/>
+      <c r="A445" s="7"/>
     </row>
     <row r="446">
-      <c r="A446" s="5"/>
+      <c r="A446" s="7"/>
     </row>
     <row r="447">
-      <c r="A447" s="5"/>
+      <c r="A447" s="7"/>
     </row>
     <row r="448">
-      <c r="A448" s="5"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="5"/>
+      <c r="A448" s="7"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="7"/>
     </row>
     <row r="451">
-      <c r="A451" s="5"/>
+      <c r="A451" s="7"/>
     </row>
     <row r="452">
-      <c r="A452" s="5"/>
+      <c r="A452" s="7"/>
     </row>
     <row r="453">
-      <c r="A453" s="5"/>
+      <c r="A453" s="7"/>
     </row>
     <row r="454">
-      <c r="A454" s="5"/>
+      <c r="A454" s="7"/>
     </row>
     <row r="455">
-      <c r="A455" s="5"/>
+      <c r="A455" s="7"/>
     </row>
     <row r="456">
-      <c r="A456" s="5"/>
+      <c r="A456" s="7"/>
     </row>
     <row r="457">
-      <c r="A457" s="5"/>
+      <c r="A457" s="7"/>
     </row>
     <row r="458">
-      <c r="A458" s="5"/>
+      <c r="A458" s="7"/>
     </row>
     <row r="459">
-      <c r="A459" s="5"/>
+      <c r="A459" s="7"/>
     </row>
     <row r="460">
-      <c r="A460" s="5"/>
+      <c r="A460" s="7"/>
     </row>
     <row r="461">
-      <c r="A461" s="5"/>
+      <c r="A461" s="7"/>
     </row>
     <row r="462">
-      <c r="A462" s="5"/>
+      <c r="A462" s="7"/>
     </row>
     <row r="463">
-      <c r="A463" s="5"/>
+      <c r="A463" s="7"/>
     </row>
     <row r="464">
-      <c r="A464" s="5"/>
+      <c r="A464" s="7"/>
     </row>
     <row r="465">
-      <c r="A465" s="5"/>
+      <c r="A465" s="7"/>
     </row>
     <row r="466">
-      <c r="A466" s="5"/>
+      <c r="A466" s="7"/>
     </row>
     <row r="467">
-      <c r="A467" s="5"/>
+      <c r="A467" s="7"/>
     </row>
     <row r="468">
-      <c r="A468" s="5"/>
+      <c r="A468" s="7"/>
     </row>
     <row r="469">
-      <c r="A469" s="5"/>
+      <c r="A469" s="7"/>
     </row>
     <row r="470">
-      <c r="A470" s="5"/>
+      <c r="A470" s="7"/>
     </row>
     <row r="471">
-      <c r="A471" s="5"/>
+      <c r="A471" s="7"/>
     </row>
     <row r="472">
-      <c r="A472" s="5"/>
+      <c r="A472" s="7"/>
     </row>
     <row r="473">
-      <c r="A473" s="5"/>
+      <c r="A473" s="7"/>
     </row>
     <row r="474">
-      <c r="A474" s="5"/>
+      <c r="A474" s="7"/>
     </row>
     <row r="475">
-      <c r="A475" s="5"/>
+      <c r="A475" s="7"/>
     </row>
     <row r="476">
-      <c r="A476" s="5"/>
+      <c r="A476" s="7"/>
     </row>
     <row r="477">
-      <c r="A477" s="5"/>
+      <c r="A477" s="7"/>
     </row>
     <row r="478">
-      <c r="A478" s="5"/>
+      <c r="A478" s="7"/>
     </row>
     <row r="479">
-      <c r="A479" s="5"/>
+      <c r="A479" s="7"/>
     </row>
     <row r="480">
-      <c r="A480" s="5"/>
+      <c r="A480" s="7"/>
     </row>
     <row r="481">
-      <c r="A481" s="5"/>
+      <c r="A481" s="7"/>
     </row>
     <row r="482">
-      <c r="A482" s="5"/>
+      <c r="A482" s="7"/>
     </row>
     <row r="483">
-      <c r="A483" s="5"/>
+      <c r="A483" s="7"/>
     </row>
     <row r="484">
-      <c r="A484" s="5"/>
+      <c r="A484" s="7"/>
     </row>
     <row r="485">
-      <c r="A485" s="5"/>
+      <c r="A485" s="7"/>
     </row>
     <row r="486">
-      <c r="A486" s="5"/>
+      <c r="A486" s="7"/>
     </row>
     <row r="487">
-      <c r="A487" s="5"/>
+      <c r="A487" s="7"/>
     </row>
     <row r="488">
-      <c r="A488" s="5"/>
+      <c r="A488" s="7"/>
     </row>
     <row r="489">
-      <c r="A489" s="5"/>
+      <c r="A489" s="7"/>
     </row>
     <row r="490">
-      <c r="A490" s="5"/>
+      <c r="A490" s="7"/>
     </row>
     <row r="491">
-      <c r="A491" s="5"/>
+      <c r="A491" s="7"/>
     </row>
     <row r="492">
-      <c r="A492" s="5"/>
+      <c r="A492" s="7"/>
     </row>
     <row r="493">
-      <c r="A493" s="5"/>
+      <c r="A493" s="7"/>
     </row>
     <row r="494">
-      <c r="A494" s="5"/>
+      <c r="A494" s="7"/>
     </row>
     <row r="495">
-      <c r="A495" s="5"/>
+      <c r="A495" s="7"/>
     </row>
     <row r="496">
-      <c r="A496" s="5"/>
+      <c r="A496" s="7"/>
     </row>
     <row r="497">
-      <c r="A497" s="5"/>
+      <c r="A497" s="7"/>
     </row>
     <row r="498">
-      <c r="A498" s="5"/>
+      <c r="A498" s="7"/>
     </row>
     <row r="499">
-      <c r="A499" s="5"/>
+      <c r="A499" s="7"/>
     </row>
     <row r="500">
-      <c r="A500" s="5"/>
+      <c r="A500" s="7"/>
     </row>
     <row r="501">
-      <c r="A501" s="5"/>
+      <c r="A501" s="7"/>
     </row>
     <row r="502">
-      <c r="A502" s="5"/>
+      <c r="A502" s="7"/>
     </row>
     <row r="503">
-      <c r="A503" s="5"/>
+      <c r="A503" s="7"/>
     </row>
     <row r="504">
-      <c r="A504" s="5"/>
+      <c r="A504" s="7"/>
     </row>
     <row r="505">
-      <c r="A505" s="5"/>
+      <c r="A505" s="7"/>
     </row>
     <row r="506">
-      <c r="A506" s="5"/>
+      <c r="A506" s="7"/>
     </row>
     <row r="507">
-      <c r="A507" s="5"/>
+      <c r="A507" s="7"/>
     </row>
     <row r="508">
-      <c r="A508" s="5"/>
+      <c r="A508" s="7"/>
     </row>
     <row r="509">
-      <c r="A509" s="5"/>
+      <c r="A509" s="7"/>
     </row>
     <row r="510">
-      <c r="A510" s="5"/>
+      <c r="A510" s="7"/>
     </row>
     <row r="511">
-      <c r="A511" s="5"/>
+      <c r="A511" s="7"/>
     </row>
     <row r="512">
-      <c r="A512" s="5"/>
+      <c r="A512" s="7"/>
     </row>
     <row r="513">
-      <c r="A513" s="5"/>
+      <c r="A513" s="7"/>
     </row>
     <row r="514">
-      <c r="A514" s="5"/>
+      <c r="A514" s="7"/>
     </row>
     <row r="515">
-      <c r="A515" s="5"/>
+      <c r="A515" s="7"/>
     </row>
     <row r="516">
-      <c r="A516" s="5"/>
+      <c r="A516" s="7"/>
     </row>
     <row r="517">
-      <c r="A517" s="5"/>
+      <c r="A517" s="7"/>
     </row>
     <row r="518">
-      <c r="A518" s="5"/>
+      <c r="A518" s="7"/>
     </row>
     <row r="519">
-      <c r="A519" s="5"/>
+      <c r="A519" s="7"/>
     </row>
     <row r="520">
-      <c r="A520" s="5"/>
+      <c r="A520" s="7"/>
     </row>
     <row r="521">
-      <c r="A521" s="5"/>
+      <c r="A521" s="7"/>
     </row>
     <row r="522">
-      <c r="A522" s="5"/>
+      <c r="A522" s="7"/>
     </row>
     <row r="523">
-      <c r="A523" s="5"/>
+      <c r="A523" s="7"/>
     </row>
     <row r="524">
-      <c r="A524" s="5"/>
+      <c r="A524" s="7"/>
     </row>
     <row r="525">
-      <c r="A525" s="5"/>
+      <c r="A525" s="7"/>
     </row>
     <row r="526">
-      <c r="A526" s="5"/>
+      <c r="A526" s="7"/>
     </row>
     <row r="527">
-      <c r="A527" s="5"/>
+      <c r="A527" s="7"/>
     </row>
     <row r="528">
-      <c r="A528" s="5"/>
+      <c r="A528" s="7"/>
     </row>
     <row r="529">
-      <c r="A529" s="5"/>
+      <c r="A529" s="7"/>
     </row>
     <row r="530">
-      <c r="A530" s="5"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="5"/>
+      <c r="A530" s="7"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="7"/>
     </row>
     <row r="533">
-      <c r="A533" s="5"/>
+      <c r="A533" s="7"/>
     </row>
     <row r="534">
-      <c r="A534" s="5"/>
+      <c r="A534" s="7"/>
     </row>
     <row r="535">
-      <c r="A535" s="5"/>
+      <c r="A535" s="7"/>
     </row>
     <row r="536">
-      <c r="A536" s="5"/>
+      <c r="A536" s="7"/>
     </row>
     <row r="537">
-      <c r="A537" s="5"/>
+      <c r="A537" s="7"/>
     </row>
     <row r="538">
-      <c r="A538" s="5"/>
+      <c r="A538" s="7"/>
     </row>
     <row r="539">
-      <c r="A539" s="5"/>
+      <c r="A539" s="7"/>
     </row>
     <row r="540">
-      <c r="A540" s="5"/>
+      <c r="A540" s="7"/>
     </row>
     <row r="541">
-      <c r="A541" s="5"/>
+      <c r="A541" s="7"/>
     </row>
     <row r="542">
-      <c r="A542" s="5"/>
+      <c r="A542" s="7"/>
     </row>
     <row r="543">
-      <c r="A543" s="5"/>
+      <c r="A543" s="7"/>
     </row>
     <row r="544">
-      <c r="A544" s="5"/>
+      <c r="A544" s="7"/>
     </row>
     <row r="545">
-      <c r="A545" s="5"/>
+      <c r="A545" s="7"/>
     </row>
     <row r="546">
-      <c r="A546" s="5"/>
+      <c r="A546" s="7"/>
     </row>
     <row r="547">
-      <c r="A547" s="5"/>
+      <c r="A547" s="7"/>
     </row>
     <row r="548">
-      <c r="A548" s="5"/>
+      <c r="A548" s="7"/>
     </row>
     <row r="549">
-      <c r="A549" s="5"/>
+      <c r="A549" s="7"/>
     </row>
     <row r="550">
-      <c r="A550" s="5"/>
+      <c r="A550" s="7"/>
     </row>
     <row r="551">
-      <c r="A551" s="5"/>
+      <c r="A551" s="7"/>
     </row>
     <row r="552">
-      <c r="A552" s="5"/>
+      <c r="A552" s="7"/>
     </row>
     <row r="553">
-      <c r="A553" s="5"/>
+      <c r="A553" s="7"/>
     </row>
     <row r="554">
-      <c r="A554" s="5"/>
+      <c r="A554" s="7"/>
     </row>
     <row r="555">
-      <c r="A555" s="5"/>
+      <c r="A555" s="7"/>
     </row>
     <row r="556">
-      <c r="A556" s="5"/>
+      <c r="A556" s="7"/>
     </row>
     <row r="557">
-      <c r="A557" s="5"/>
+      <c r="A557" s="7"/>
     </row>
     <row r="558">
-      <c r="A558" s="5"/>
+      <c r="A558" s="7"/>
     </row>
     <row r="559">
-      <c r="A559" s="5"/>
+      <c r="A559" s="7"/>
     </row>
     <row r="560">
-      <c r="A560" s="5"/>
+      <c r="A560" s="7"/>
     </row>
     <row r="561">
-      <c r="A561" s="5"/>
+      <c r="A561" s="7"/>
     </row>
     <row r="562">
-      <c r="A562" s="5"/>
+      <c r="A562" s="7"/>
     </row>
     <row r="563">
-      <c r="A563" s="5"/>
+      <c r="A563" s="7"/>
     </row>
     <row r="564">
-      <c r="A564" s="5"/>
+      <c r="A564" s="7"/>
     </row>
     <row r="565">
-      <c r="A565" s="5"/>
+      <c r="A565" s="7"/>
     </row>
     <row r="566">
-      <c r="A566" s="5"/>
+      <c r="A566" s="7"/>
     </row>
     <row r="567">
-      <c r="A567" s="5"/>
+      <c r="A567" s="7"/>
     </row>
     <row r="568">
-      <c r="A568" s="5"/>
+      <c r="A568" s="7"/>
     </row>
     <row r="569">
-      <c r="A569" s="5"/>
+      <c r="A569" s="7"/>
     </row>
     <row r="570">
-      <c r="A570" s="5"/>
+      <c r="A570" s="7"/>
     </row>
     <row r="571">
-      <c r="A571" s="5"/>
+      <c r="A571" s="7"/>
     </row>
     <row r="572">
-      <c r="A572" s="5"/>
+      <c r="A572" s="7"/>
     </row>
     <row r="573">
-      <c r="A573" s="5"/>
+      <c r="A573" s="7"/>
     </row>
     <row r="574">
-      <c r="A574" s="5"/>
+      <c r="A574" s="7"/>
     </row>
     <row r="575">
-      <c r="A575" s="5"/>
+      <c r="A575" s="7"/>
     </row>
     <row r="576">
-      <c r="A576" s="5"/>
+      <c r="A576" s="7"/>
     </row>
     <row r="577">
-      <c r="A577" s="5"/>
+      <c r="A577" s="7"/>
     </row>
     <row r="578">
-      <c r="A578" s="5"/>
+      <c r="A578" s="7"/>
     </row>
     <row r="579">
-      <c r="A579" s="5"/>
+      <c r="A579" s="7"/>
     </row>
     <row r="580">
-      <c r="A580" s="5"/>
+      <c r="A580" s="7"/>
     </row>
     <row r="581">
-      <c r="A581" s="5"/>
+      <c r="A581" s="7"/>
     </row>
     <row r="582">
-      <c r="A582" s="5"/>
+      <c r="A582" s="7"/>
     </row>
     <row r="583">
-      <c r="A583" s="5"/>
+      <c r="A583" s="7"/>
     </row>
     <row r="584">
-      <c r="A584" s="5"/>
+      <c r="A584" s="7"/>
     </row>
     <row r="585">
-      <c r="A585" s="5"/>
+      <c r="A585" s="7"/>
     </row>
     <row r="586">
-      <c r="A586" s="5"/>
+      <c r="A586" s="7"/>
     </row>
     <row r="587">
-      <c r="A587" s="5"/>
+      <c r="A587" s="7"/>
     </row>
     <row r="588">
-      <c r="A588" s="5"/>
+      <c r="A588" s="7"/>
     </row>
     <row r="589">
-      <c r="A589" s="5"/>
+      <c r="A589" s="7"/>
     </row>
     <row r="590">
-      <c r="A590" s="5"/>
+      <c r="A590" s="7"/>
     </row>
     <row r="591">
-      <c r="A591" s="5"/>
+      <c r="A591" s="7"/>
     </row>
     <row r="592">
-      <c r="A592" s="5"/>
+      <c r="A592" s="7"/>
     </row>
     <row r="593">
-      <c r="A593" s="5"/>
+      <c r="A593" s="7"/>
     </row>
     <row r="594">
-      <c r="A594" s="5"/>
+      <c r="A594" s="7"/>
     </row>
     <row r="595">
-      <c r="A595" s="5"/>
+      <c r="A595" s="7"/>
     </row>
     <row r="596">
-      <c r="A596" s="5"/>
+      <c r="A596" s="7"/>
     </row>
     <row r="597">
-      <c r="A597" s="5"/>
+      <c r="A597" s="7"/>
     </row>
     <row r="598">
-      <c r="A598" s="5"/>
+      <c r="A598" s="7"/>
     </row>
     <row r="599">
-      <c r="A599" s="5"/>
+      <c r="A599" s="7"/>
     </row>
     <row r="600">
-      <c r="A600" s="5"/>
+      <c r="A600" s="7"/>
     </row>
     <row r="601">
-      <c r="A601" s="5"/>
+      <c r="A601" s="7"/>
     </row>
     <row r="602">
-      <c r="A602" s="5"/>
+      <c r="A602" s="7"/>
     </row>
     <row r="603">
-      <c r="A603" s="5"/>
+      <c r="A603" s="7"/>
     </row>
     <row r="604">
-      <c r="A604" s="5"/>
+      <c r="A604" s="7"/>
     </row>
     <row r="605">
-      <c r="A605" s="5"/>
+      <c r="A605" s="7"/>
     </row>
     <row r="606">
-      <c r="A606" s="5"/>
+      <c r="A606" s="7"/>
     </row>
     <row r="607">
-      <c r="A607" s="5"/>
+      <c r="A607" s="7"/>
     </row>
     <row r="608">
-      <c r="A608" s="5"/>
+      <c r="A608" s="7"/>
     </row>
     <row r="609">
-      <c r="A609" s="5"/>
+      <c r="A609" s="7"/>
     </row>
     <row r="610">
-      <c r="A610" s="5"/>
+      <c r="A610" s="7"/>
     </row>
     <row r="611">
-      <c r="A611" s="5"/>
+      <c r="A611" s="7"/>
     </row>
     <row r="612">
-      <c r="A612" s="5"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="5"/>
+      <c r="A612" s="7"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="7"/>
     </row>
     <row r="615">
-      <c r="A615" s="5"/>
+      <c r="A615" s="7"/>
     </row>
     <row r="616">
-      <c r="A616" s="5"/>
+      <c r="A616" s="7"/>
     </row>
     <row r="617">
-      <c r="A617" s="5"/>
+      <c r="A617" s="7"/>
     </row>
     <row r="618">
-      <c r="A618" s="5"/>
+      <c r="A618" s="7"/>
     </row>
     <row r="619">
-      <c r="A619" s="5"/>
+      <c r="A619" s="7"/>
     </row>
     <row r="620">
-      <c r="A620" s="5"/>
+      <c r="A620" s="7"/>
     </row>
     <row r="621">
-      <c r="A621" s="5"/>
+      <c r="A621" s="7"/>
     </row>
     <row r="622">
-      <c r="A622" s="5"/>
+      <c r="A622" s="7"/>
     </row>
     <row r="623">
-      <c r="A623" s="5"/>
+      <c r="A623" s="7"/>
     </row>
     <row r="624">
-      <c r="A624" s="5"/>
+      <c r="A624" s="7"/>
     </row>
     <row r="625">
-      <c r="A625" s="5"/>
+      <c r="A625" s="7"/>
     </row>
     <row r="626">
-      <c r="A626" s="5"/>
+      <c r="A626" s="7"/>
     </row>
     <row r="627">
-      <c r="A627" s="5"/>
+      <c r="A627" s="7"/>
     </row>
     <row r="628">
-      <c r="A628" s="5"/>
+      <c r="A628" s="7"/>
     </row>
     <row r="629">
-      <c r="A629" s="5"/>
+      <c r="A629" s="7"/>
     </row>
     <row r="630">
-      <c r="A630" s="5"/>
+      <c r="A630" s="7"/>
     </row>
     <row r="631">
-      <c r="A631" s="5"/>
+      <c r="A631" s="7"/>
     </row>
     <row r="632">
-      <c r="A632" s="5"/>
+      <c r="A632" s="7"/>
     </row>
     <row r="633">
-      <c r="A633" s="5"/>
+      <c r="A633" s="7"/>
     </row>
     <row r="634">
-      <c r="A634" s="5"/>
+      <c r="A634" s="7"/>
     </row>
     <row r="635">
-      <c r="A635" s="5"/>
+      <c r="A635" s="7"/>
     </row>
     <row r="636">
-      <c r="A636" s="5"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="5"/>
+      <c r="A636" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
